--- a/output/1Y_P108_1VAL-D.xlsx
+++ b/output/1Y_P108_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>559.5846</v>
       </c>
-      <c r="G2" s="1">
-        <v>559.5846</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1265</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8704</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1265</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E3" s="1">
+        <v>559.5846</v>
+      </c>
       <c r="F3" s="1">
         <v>569.4631000000001</v>
       </c>
-      <c r="G3" s="1">
-        <v>1129.0477</v>
-      </c>
       <c r="H3" s="1">
-        <v>19723.7854</v>
+        <v>9775.606599999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.714</v>
+        <v>9775.606599999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8704</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19723.7854</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0112</v>
+        <v>-0.0224</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.4279</v>
       </c>
+      <c r="E4" s="1">
+        <v>1129.0477</v>
+      </c>
       <c r="F4" s="1">
         <v>573.7926</v>
       </c>
-      <c r="G4" s="1">
-        <v>1702.8403</v>
-      </c>
       <c r="H4" s="1">
-        <v>29522.9932</v>
+        <v>19574.8641</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.6176</v>
+        <v>19574.8641</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.714</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29522.9932</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0068</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.5932</v>
       </c>
+      <c r="E5" s="1">
+        <v>1702.8403</v>
+      </c>
       <c r="F5" s="1">
         <v>568.4014</v>
       </c>
-      <c r="G5" s="1">
-        <v>2271.2417</v>
-      </c>
       <c r="H5" s="1">
-        <v>39751.2722</v>
+        <v>29803.1104</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.6115</v>
+        <v>29803.1104</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6176</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39751.2722</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0058</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.2741</v>
       </c>
+      <c r="E6" s="1">
+        <v>2271.2417</v>
+      </c>
       <c r="F6" s="1">
         <v>614.4733</v>
       </c>
-      <c r="G6" s="1">
-        <v>2885.715</v>
-      </c>
       <c r="H6" s="1">
-        <v>46718.8602</v>
+        <v>36770.7217</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3267</v>
+        <v>36770.7217</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.6115</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>46718.8602</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.0497</v>
       </c>
+      <c r="E7" s="1">
+        <v>2885.715</v>
+      </c>
       <c r="F7" s="1">
         <v>586.5205999999999</v>
       </c>
-      <c r="G7" s="1">
-        <v>3472.2356</v>
-      </c>
       <c r="H7" s="1">
-        <v>58893.2822</v>
+        <v>48945.1893</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.2799</v>
+        <v>48945.1893</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.3267</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58893.2822</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0383</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.4616</v>
       </c>
+      <c r="E8" s="1">
+        <v>3472.2356</v>
+      </c>
       <c r="F8" s="1">
         <v>572.6852</v>
       </c>
-      <c r="G8" s="1">
-        <v>4044.9208</v>
-      </c>
       <c r="H8" s="1">
-        <v>70264.31909999999</v>
+        <v>60316.2044</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.3057</v>
+        <v>60316.2044</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2799</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70264.31909999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0199</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.8249</v>
       </c>
+      <c r="E9" s="1">
+        <v>4044.9208</v>
+      </c>
       <c r="F9" s="1">
         <v>561.013</v>
       </c>
-      <c r="G9" s="1">
-        <v>4605.9338</v>
-      </c>
       <c r="H9" s="1">
-        <v>81674.72040000001</v>
+        <v>71726.558</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3689</v>
+        <v>71726.558</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3057</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81674.72040000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0176</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.8446</v>
       </c>
+      <c r="E10" s="1">
+        <v>4605.9338</v>
+      </c>
       <c r="F10" s="1">
         <v>593.6621</v>
       </c>
-      <c r="G10" s="1">
-        <v>5199.5958</v>
-      </c>
       <c r="H10" s="1">
-        <v>87131.1871</v>
+        <v>77183.0138</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.309</v>
+        <v>77183.0138</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3689</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>87131.1871</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0496</v>
+        <v>-0.0556</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.4603</v>
       </c>
+      <c r="E11" s="1">
+        <v>5199.5958</v>
+      </c>
       <c r="F11" s="1">
         <v>607.5223</v>
       </c>
-      <c r="G11" s="1">
-        <v>5807.1182</v>
-      </c>
       <c r="H11" s="1">
-        <v>95090.9792</v>
+        <v>85142.8616</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2202</v>
+        <v>85142.8616</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.309</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>95090.9792</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.021</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.8064</v>
       </c>
+      <c r="E12" s="1">
+        <v>5807.1182</v>
+      </c>
       <c r="F12" s="1">
         <v>632.6550999999999</v>
       </c>
-      <c r="G12" s="1">
-        <v>6439.7733</v>
-      </c>
       <c r="H12" s="1">
-        <v>101261.5711</v>
+        <v>91313.4489</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0813</v>
+        <v>91313.4489</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2202</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>101261.5711</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0364</v>
+        <v>-0.0402</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.4915</v>
       </c>
+      <c r="E13" s="1">
+        <v>6439.7733</v>
+      </c>
       <c r="F13" s="1">
         <v>606.373</v>
       </c>
-      <c r="G13" s="1">
-        <v>7046.1463</v>
-      </c>
       <c r="H13" s="1">
-        <v>115598.3711</v>
+        <v>105650.2766</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.0306</v>
+        <v>105650.2766</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0813</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>115598.3711</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.039</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.579</v>
       </c>
+      <c r="E14" s="1">
+        <v>7046.1463</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7046.1463</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6439.7733</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116212.0905</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.0306</v>
+        <v>116212.0905</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6114</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116212.0905</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116212.0905</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116212.0905</v>
+        <v>106211.1809</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0747</v>
+        <v>0.0049</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.8704</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.5846</v>
       </c>
       <c r="G2" s="1">
-        <v>559.5846</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1265</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8704</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1265</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.5604</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>559.5846</v>
       </c>
       <c r="F3" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1129.0477</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19723.7854</v>
+        <v>9775.606599999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.714</v>
+        <v>9775.606599999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8704</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19723.7854</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0112</v>
+        <v>-0.0224</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.4279</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1129.0477</v>
       </c>
       <c r="F4" s="1">
         <v>573.7926</v>
       </c>
       <c r="G4" s="1">
-        <v>1702.8403</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29522.9932</v>
+        <v>19574.8641</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.6176</v>
+        <v>19574.8641</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.714</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29522.9932</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0068</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.5932</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1702.8403</v>
       </c>
       <c r="F5" s="1">
         <v>568.4014</v>
       </c>
       <c r="G5" s="1">
-        <v>2271.2417</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39751.2722</v>
+        <v>29803.1104</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.6115</v>
+        <v>29803.1104</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6176</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39751.2722</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0058</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.2741</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2271.2417</v>
       </c>
       <c r="F6" s="1">
         <v>614.4733</v>
       </c>
       <c r="G6" s="1">
-        <v>2885.715</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>46718.8602</v>
+        <v>36770.7217</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3267</v>
+        <v>36770.7217</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.6115</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>46718.8602</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.0497</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2885.715</v>
       </c>
       <c r="F7" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3472.2356</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>58893.2822</v>
+        <v>48945.1893</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.2799</v>
+        <v>48945.1893</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.3267</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58893.2822</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0383</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.4616</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3472.2356</v>
       </c>
       <c r="F8" s="1">
         <v>557.4691</v>
       </c>
       <c r="G8" s="1">
-        <v>4029.7047</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60316.2044</v>
       </c>
       <c r="I8" s="1">
-        <v>69734.3023</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.3051</v>
+        <v>60316.2044</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59734.3023</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2034</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9734.302299999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>265.6977</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70265.6977</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0199</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.8249</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4029.7047</v>
       </c>
       <c r="F9" s="1">
         <v>481.7855</v>
       </c>
       <c r="G9" s="1">
-        <v>4511.4902</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>71456.73820000001</v>
       </c>
       <c r="I9" s="1">
-        <v>78322.08100000001</v>
+        <v>265.6977</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3606</v>
+        <v>71722.4359</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68322.08100000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9546</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8587.778700000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>1677.919</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81677.91899999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0176</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.8446</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4511.4902</v>
       </c>
       <c r="F10" s="1">
         <v>693.2737</v>
       </c>
       <c r="G10" s="1">
-        <v>5204.7639</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>87217.79090000001</v>
+        <v>75600.39479999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>1677.919</v>
       </c>
       <c r="J10" s="1">
-        <v>17.2919</v>
+        <v>77278.3137</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7325</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11677.919</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87217.79090000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0486</v>
+        <v>-0.0544</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.4603</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5204.7639</v>
       </c>
       <c r="F11" s="1">
         <v>607.5223</v>
       </c>
       <c r="G11" s="1">
-        <v>5812.2863</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>95175.60679999999</v>
+        <v>85227.4892</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2049</v>
+        <v>85227.4892</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.2919</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>95175.60679999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.021</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.8064</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5812.2863</v>
       </c>
       <c r="F12" s="1">
         <v>632.6550999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6444.9414</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101342.8368</v>
+        <v>91394.7145</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0676</v>
+        <v>91394.7145</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2049</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>101342.8368</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0364</v>
+        <v>-0.0402</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.4915</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6444.9414</v>
       </c>
       <c r="F13" s="1">
         <v>606.373</v>
       </c>
       <c r="G13" s="1">
-        <v>7051.3144</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>115683.1589</v>
+        <v>105735.0644</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.0181</v>
+        <v>105735.0644</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0676</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>115683.1589</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.039</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.579</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7051.3144</v>
       </c>
       <c r="F14" s="1">
         <v>-7051.3144</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116297.3283</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.0181</v>
+        <v>116297.3283</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116297.3283</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116297.3283</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>116297.3283</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0747</v>
+        <v>0.0049</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.8704</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.5846</v>
       </c>
       <c r="G2" s="1">
-        <v>559.5846</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1265</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8704</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1265</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.5604</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>559.5846</v>
       </c>
       <c r="F3" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1129.0477</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19723.7854</v>
+        <v>9775.606599999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.714</v>
+        <v>9775.606599999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8704</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19723.7854</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0112</v>
+        <v>-0.0224</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.4279</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1129.0477</v>
       </c>
       <c r="F4" s="1">
         <v>573.7926</v>
       </c>
       <c r="G4" s="1">
-        <v>1702.8403</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29522.9932</v>
+        <v>19574.8641</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.6176</v>
+        <v>19574.8641</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.714</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29522.9932</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0068</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.5932</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1702.8403</v>
       </c>
       <c r="F5" s="1">
         <v>568.4014</v>
       </c>
       <c r="G5" s="1">
-        <v>2271.2417</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39751.2722</v>
+        <v>29803.1104</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.6115</v>
+        <v>29803.1104</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6176</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39751.2722</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0058</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.2741</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2271.2417</v>
       </c>
       <c r="F6" s="1">
         <v>614.4733</v>
       </c>
       <c r="G6" s="1">
-        <v>2885.715</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>46718.8602</v>
+        <v>36770.7217</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3267</v>
+        <v>36770.7217</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.6115</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>46718.8602</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.0497</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2885.715</v>
       </c>
       <c r="F7" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3472.2356</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>58893.2822</v>
+        <v>48945.1893</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.2799</v>
+        <v>48945.1893</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.3267</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58893.2822</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0383</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.4616</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3472.2356</v>
       </c>
       <c r="F8" s="1">
         <v>572.6852</v>
       </c>
       <c r="G8" s="1">
-        <v>4044.9208</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>70264.31909999999</v>
+        <v>60316.2044</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.3057</v>
+        <v>60316.2044</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2799</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70264.31909999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0199</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.8249</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4044.9208</v>
       </c>
       <c r="F9" s="1">
         <v>546.3150000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4591.2357</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71726.558</v>
       </c>
       <c r="I9" s="1">
-        <v>79738.0094</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3674</v>
+        <v>71726.558</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69738.0094</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2409</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9738.009400000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>261.9906</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81676.0785</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0176</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.8446</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4591.2357</v>
       </c>
       <c r="F10" s="1">
         <v>609.2155</v>
       </c>
       <c r="G10" s="1">
-        <v>5200.4512</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>87145.5209</v>
+        <v>76936.7148</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>261.9906</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3062</v>
+        <v>77198.70540000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.4245</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10261.9906</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>87145.5209</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0494</v>
+        <v>-0.0554</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.4603</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5200.4512</v>
       </c>
       <c r="F11" s="1">
         <v>607.5223</v>
       </c>
       <c r="G11" s="1">
-        <v>5807.9735</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>95104.9859</v>
+        <v>85156.8683</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2177</v>
+        <v>85156.8683</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3062</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>95104.9859</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.021</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.8064</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5807.9735</v>
       </c>
       <c r="F12" s="1">
         <v>632.6550999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6440.6287</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>101275.0214</v>
+        <v>91326.8991</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0791</v>
+        <v>91326.8991</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2177</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>101275.0214</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0364</v>
+        <v>-0.0402</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.4915</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6440.6287</v>
       </c>
       <c r="F13" s="1">
         <v>606.373</v>
       </c>
       <c r="G13" s="1">
-        <v>7047.0016</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>115612.4043</v>
+        <v>105664.3099</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.0285</v>
+        <v>105664.3099</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0791</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>115612.4043</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.039</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>16.579</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7047.0016</v>
       </c>
       <c r="F14" s="1">
         <v>-7047.0016</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116226.1982</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.0285</v>
+        <v>116226.1982</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6095</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116226.1982</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116226.1982</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>116226.1982</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0747</v>
+        <v>0.0049</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.8704</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.5846</v>
       </c>
       <c r="G2" s="1">
-        <v>559.5846</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1265</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8704</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1265</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.5604</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>559.5846</v>
       </c>
       <c r="F3" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1129.0477</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19723.7854</v>
+        <v>9775.606599999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.714</v>
+        <v>9775.606599999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8704</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19723.7854</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0112</v>
+        <v>-0.0224</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.4279</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1129.0477</v>
       </c>
       <c r="F4" s="1">
         <v>573.7926</v>
       </c>
       <c r="G4" s="1">
-        <v>1702.8403</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29522.9932</v>
+        <v>19574.8641</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.6176</v>
+        <v>19574.8641</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.714</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29522.9932</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0068</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.5932</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1702.8403</v>
       </c>
       <c r="F5" s="1">
         <v>568.4014</v>
       </c>
       <c r="G5" s="1">
-        <v>2271.2417</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39751.2722</v>
+        <v>29803.1104</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.6115</v>
+        <v>29803.1104</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6176</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39751.2722</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0058</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.2741</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2271.2417</v>
       </c>
       <c r="F6" s="1">
         <v>614.4733</v>
       </c>
       <c r="G6" s="1">
-        <v>2885.715</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>46718.8602</v>
+        <v>36770.7217</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3267</v>
+        <v>36770.7217</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.6115</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>46718.8602</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.0497</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2885.715</v>
       </c>
       <c r="F7" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3472.2356</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>58893.2822</v>
+        <v>48945.1893</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.2799</v>
+        <v>48945.1893</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.3267</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58893.2822</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0383</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.4616</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3472.2356</v>
       </c>
       <c r="F8" s="1">
         <v>572.6852</v>
       </c>
       <c r="G8" s="1">
-        <v>4044.9208</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>70264.31909999999</v>
+        <v>60316.2044</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.3057</v>
+        <v>60316.2044</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2799</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70264.31909999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0199</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.8249</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4044.9208</v>
       </c>
       <c r="F9" s="1">
         <v>561.013</v>
       </c>
       <c r="G9" s="1">
-        <v>4605.9338</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>81674.72040000001</v>
+        <v>71726.558</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3689</v>
+        <v>71726.558</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3057</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81674.72040000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0176</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.8446</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4605.9338</v>
       </c>
       <c r="F10" s="1">
         <v>593.6621</v>
       </c>
       <c r="G10" s="1">
-        <v>5199.5958</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>87131.1871</v>
+        <v>77183.0138</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.309</v>
+        <v>77183.0138</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3689</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>87131.1871</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0496</v>
+        <v>-0.0556</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.4603</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5199.5958</v>
       </c>
       <c r="F11" s="1">
         <v>607.5223</v>
       </c>
       <c r="G11" s="1">
-        <v>5807.1182</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>95090.9792</v>
+        <v>85142.8616</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2202</v>
+        <v>85142.8616</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.309</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>95090.9792</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.021</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.8064</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5807.1182</v>
       </c>
       <c r="F12" s="1">
         <v>632.6550999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6439.7733</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101261.5711</v>
+        <v>91313.4489</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0813</v>
+        <v>91313.4489</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2202</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>101261.5711</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0364</v>
+        <v>-0.0402</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.4915</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6439.7733</v>
       </c>
       <c r="F13" s="1">
         <v>606.373</v>
       </c>
       <c r="G13" s="1">
-        <v>7046.1463</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>115598.3711</v>
+        <v>105650.2766</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.0306</v>
+        <v>105650.2766</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0813</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>115598.3711</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.039</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>16.579</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7046.1463</v>
       </c>
       <c r="F14" s="1">
         <v>-7046.1463</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116212.0905</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.0306</v>
+        <v>116212.0905</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6114</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116212.0905</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116212.0905</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>116212.0905</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0747</v>
+        <v>0.0049</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.8704</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.5846</v>
       </c>
       <c r="G2" s="1">
-        <v>559.5846</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1265</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8704</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1265</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.5604</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>559.5846</v>
       </c>
       <c r="F3" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1129.0477</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19723.7854</v>
+        <v>9775.606599999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.714</v>
+        <v>9775.606599999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8704</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19723.7854</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0112</v>
+        <v>-0.0224</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.4279</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1129.0477</v>
       </c>
       <c r="F4" s="1">
         <v>573.7926</v>
       </c>
       <c r="G4" s="1">
-        <v>1702.8403</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29522.9932</v>
+        <v>19574.8641</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.6176</v>
+        <v>19574.8641</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.714</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29522.9932</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0068</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.5932</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1702.8403</v>
       </c>
       <c r="F5" s="1">
         <v>568.4014</v>
       </c>
       <c r="G5" s="1">
-        <v>2271.2417</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39751.2722</v>
+        <v>29803.1104</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.6115</v>
+        <v>29803.1104</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6176</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39751.2722</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0058</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.2741</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2271.2417</v>
       </c>
       <c r="F6" s="1">
         <v>614.4733</v>
       </c>
       <c r="G6" s="1">
-        <v>2885.715</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>46718.8602</v>
+        <v>36770.7217</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3267</v>
+        <v>36770.7217</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.6115</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>46718.8602</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.0497</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2885.715</v>
       </c>
       <c r="F7" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3472.2356</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>58893.2822</v>
+        <v>48945.1893</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.2799</v>
+        <v>48945.1893</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.3267</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58893.2822</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0383</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.4616</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3472.2356</v>
       </c>
       <c r="F8" s="1">
         <v>572.6852</v>
       </c>
       <c r="G8" s="1">
-        <v>4044.9208</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>70264.31909999999</v>
+        <v>60316.2044</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.3057</v>
+        <v>60316.2044</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2799</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70264.31909999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0199</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.8249</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4044.9208</v>
       </c>
       <c r="F9" s="1">
         <v>561.013</v>
       </c>
       <c r="G9" s="1">
-        <v>4605.9338</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>81674.72040000001</v>
+        <v>71726.558</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.3689</v>
+        <v>71726.558</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3057</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81674.72040000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0176</v>
+        <v>0.0201</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.8446</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4605.9338</v>
       </c>
       <c r="F10" s="1">
         <v>593.6621</v>
       </c>
       <c r="G10" s="1">
-        <v>5199.5958</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>87131.1871</v>
+        <v>77183.0138</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.309</v>
+        <v>77183.0138</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3689</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>87131.1871</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0496</v>
+        <v>-0.0556</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.4603</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5199.5958</v>
       </c>
       <c r="F11" s="1">
         <v>607.5223</v>
       </c>
       <c r="G11" s="1">
-        <v>5807.1182</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>95090.9792</v>
+        <v>85142.8616</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.2202</v>
+        <v>85142.8616</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.309</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>95090.9792</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.021</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.8064</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5807.1182</v>
       </c>
       <c r="F12" s="1">
         <v>632.6550999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6439.7733</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>101261.5711</v>
+        <v>91313.4489</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0813</v>
+        <v>91313.4489</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2202</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>101261.5711</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0364</v>
+        <v>-0.0402</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.4915</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6439.7733</v>
       </c>
       <c r="F13" s="1">
         <v>606.373</v>
       </c>
       <c r="G13" s="1">
-        <v>7046.1463</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>115598.3711</v>
+        <v>105650.2766</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.0306</v>
+        <v>105650.2766</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0813</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>115598.3711</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.039</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>16.579</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7046.1463</v>
       </c>
       <c r="F14" s="1">
         <v>-7046.1463</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116212.0905</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.0306</v>
+        <v>116212.0905</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6114</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116212.0905</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116212.0905</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>116212.0905</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0747</v>
+        <v>0.0049</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.5343</v>
@@ -4514,99 +4487,99 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.0306</v>
+        <v>15.6114</v>
       </c>
       <c r="D3" s="1">
-        <v>17.0181</v>
+        <v>15.5999</v>
       </c>
       <c r="E3" s="1">
-        <v>17.0285</v>
+        <v>15.6095</v>
       </c>
       <c r="F3" s="1">
-        <v>17.0306</v>
+        <v>15.6114</v>
       </c>
       <c r="G3" s="1">
-        <v>17.0306</v>
+        <v>15.6114</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.06660000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1401</v>
+        <v>-0.0828</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1391</v>
+        <v>-0.0818</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.14</v>
+        <v>-0.0827</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1401</v>
+        <v>-0.0828</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1401</v>
+        <v>-0.0828</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1266</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1257</v>
+        <v>0.127</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1254</v>
+        <v>0.1265</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1256</v>
+        <v>0.1269</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1257</v>
+        <v>0.127</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1257</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.6872</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.2769</v>
+        <v>-0.8125</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.2718</v>
+        <v>-0.8071</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.276</v>
+        <v>-0.8116</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.2769</v>
+        <v>-0.8125</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.2769</v>
+        <v>-0.8125</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0578</v>
+        <v>-0.205</v>
       </c>
       <c r="D7" s="3">
         <v>-0.0566</v>
@@ -4623,7 +4596,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
